--- a/2018/CRM/BA_Checklist/SOF.QP.04.M05_BAChecklistERP_CRMF9002_Ver5.xlsx
+++ b/2018/CRM/BA_Checklist/SOF.QP.04.M05_BAChecklistERP_CRMF9002_Ver5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="653" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10995" tabRatio="653" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Bắt buộc" sheetId="5" r:id="rId1"/>
@@ -1037,6 +1037,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1087,24 +1105,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1329,7 +1329,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1381,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1429,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1481,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1547,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1599,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1665,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1717,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1783,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1835,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1901,7 +1901,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1953,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,16 +2323,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -2341,28 +2341,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -2431,94 +2431,94 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="60" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="61"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="60" t="s">
+      <c r="M10" s="44"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="60" t="s">
+      <c r="P10" s="44"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="61"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="60" t="s">
+      <c r="S10" s="44"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="61"/>
-      <c r="W10" s="62"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="B11" s="54"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="63" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="64"/>
-      <c r="I11" s="63" t="s">
+      <c r="H11" s="47"/>
+      <c r="I11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="63" t="s">
+      <c r="J11" s="48"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="63" t="s">
+      <c r="M11" s="48"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="63" t="s">
+      <c r="P11" s="48"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="65"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="63" t="s">
+      <c r="S11" s="48"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V11" s="65"/>
-      <c r="W11" s="64"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="47"/>
     </row>
     <row r="12" spans="1:23" ht="28.5">
       <c r="A12" s="6"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -2608,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="44"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="18" t="s">
         <v>84</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="45"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="19" t="s">
         <v>80</v>
       </c>
@@ -3496,6 +3496,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="L10:N10"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="R10:T10"/>
@@ -3506,16 +3516,6 @@
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="U11:W11"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="G13:G43 I13:J43 L13:M43 O13:P43 R13:S43 U13:V43">
     <cfRule type="expression" dxfId="31" priority="4">
@@ -3556,7 +3556,7 @@
   </sheetPr>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -3584,16 +3584,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -3602,28 +3602,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3712,95 +3712,95 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="60" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="60" t="s">
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="60" t="s">
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="60" t="s">
+      <c r="S12" s="44"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="45"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="63" t="str">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="46" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="63" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="65"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="63" t="s">
+      <c r="M13" s="48"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="63" t="s">
+      <c r="P13" s="48"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="65"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="63" t="s">
+      <c r="S13" s="48"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="65"/>
-      <c r="W13" s="64"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="47"/>
     </row>
     <row r="14" spans="1:23" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -4821,15 +4821,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C12:C14"/>
     <mergeCell ref="D16:D23"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="O12:Q12"/>
@@ -4841,6 +4832,15 @@
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R13:T13"/>
     <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:J43 L15:M43 O15:P43 R15:S43 U15:V43 G15:G27 G36:G43 G29:G33">
     <cfRule type="expression" dxfId="27" priority="7">
@@ -4895,7 +4895,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="E1" sqref="E1:I3"/>
@@ -4925,16 +4925,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -4943,28 +4943,28 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -5053,89 +5053,89 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="60" t="s">
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="60" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="63" t="str">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="46" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="63" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="63" t="s">
+      <c r="O13" s="48"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="65"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="63" t="s">
+      <c r="R13" s="48"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="64"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="47"/>
     </row>
     <row r="14" spans="1:22" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -6164,6 +6164,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="T12:V12"/>
     <mergeCell ref="T13:V13"/>
     <mergeCell ref="N12:P12"/>
@@ -6176,14 +6184,6 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="C12:C14"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:J45 N15:O45 Q15:R45 T15:U45 L15:L48 G15:G45">
     <cfRule type="expression" dxfId="21" priority="15">
@@ -6252,16 +6252,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -6270,28 +6270,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -6380,95 +6380,95 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="60" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="60" t="s">
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="60" t="s">
+      <c r="P12" s="44"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="60" t="s">
+      <c r="S12" s="44"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="61"/>
-      <c r="W12" s="62"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="45"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="63" t="str">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="46" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="63" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="65"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="63" t="s">
+      <c r="M13" s="48"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="63" t="s">
+      <c r="P13" s="48"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="65"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="63" t="s">
+      <c r="S13" s="48"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="65"/>
-      <c r="W13" s="64"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="47"/>
     </row>
     <row r="14" spans="1:23" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -7605,21 +7605,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="C12:C14"/>
     <mergeCell ref="U12:W12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -7630,6 +7615,21 @@
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="R12:T12"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="I15:J48 L15:M48 O15:P48 R15:S48 U15:V48 G15:G48">
     <cfRule type="expression" dxfId="17" priority="4">
@@ -7699,16 +7699,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="2" t="s">
         <v>23</v>
       </c>
@@ -7717,28 +7717,28 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
@@ -7827,89 +7827,89 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="60" t="s">
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="60" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="54"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="63" t="str">
+      <c r="B13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="46" t="str">
         <f>'Bắt buộc'!G11:H11</f>
         <v>Reviewer: [Đào Tấn Đạt]</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="63" t="s">
+      <c r="J13" s="48"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="63" t="s">
+      <c r="O13" s="48"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="65"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="63" t="s">
+      <c r="R13" s="48"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="64"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="47"/>
     </row>
     <row r="14" spans="1:22" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
@@ -8835,6 +8835,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q12:S12"/>
@@ -8845,15 +8854,6 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="T13:V13"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <conditionalFormatting sqref="G15:G45 I15:J45 N15:O45 Q15:R45 T15:U45 L15:L48">
     <cfRule type="expression" dxfId="14" priority="4">
@@ -8894,7 +8894,7 @@
   </sheetPr>
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -8921,15 +8921,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
@@ -8938,26 +8938,26 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
@@ -9041,89 +9041,89 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60" t="s">
+      <c r="G12" s="65"/>
+      <c r="H12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="60" t="s">
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60" t="s">
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="60" t="s">
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="61"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="60" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="62"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="45"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="63" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="63" t="s">
+      <c r="G13" s="47"/>
+      <c r="H13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="63" t="s">
+      <c r="I13" s="48"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="65"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="63" t="s">
+      <c r="L13" s="48"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="63" t="s">
+      <c r="O13" s="48"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="65"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="63" t="s">
+      <c r="R13" s="48"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="65"/>
-      <c r="V13" s="64"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="47"/>
     </row>
     <row r="14" spans="1:22" ht="28.5">
       <c r="A14" s="6"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
@@ -9180,7 +9180,7 @@
       <c r="B15" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="49" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -9211,7 +9211,7 @@
       <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="11" t="s">
         <v>64</v>
       </c>
@@ -9240,7 +9240,7 @@
       <c r="B17" s="9">
         <v>3</v>
       </c>
-      <c r="C17" s="44"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="13" t="s">
         <v>74</v>
       </c>
@@ -9269,7 +9269,7 @@
       <c r="B18" s="9">
         <v>4</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="13" t="s">
         <v>75</v>
       </c>
@@ -9298,7 +9298,7 @@
       <c r="B19" s="9">
         <v>5</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="11" t="s">
         <v>90</v>
       </c>
@@ -9327,7 +9327,7 @@
       <c r="B20" s="9">
         <v>6</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="13" t="s">
         <v>91</v>
       </c>
@@ -9356,7 +9356,7 @@
       <c r="B21" s="9">
         <v>7</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="13" t="s">
         <v>92</v>
       </c>
@@ -10079,15 +10079,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:H3"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="Q12:S12"/>
@@ -10098,6 +10089,15 @@
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:H3"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F45 H15:I23 K15:L45 N15:O45 Q15:R45 T15:U45 H25:I45 I24">
     <cfRule type="expression" dxfId="10" priority="11">
